--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_pa.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_pa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CBFE78-C73F-4C7C-96F6-39E038A62BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67963FA1-8CBE-C74E-A97B-BA92CDBD9373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -902,16 +902,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -935,9 +929,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,20 +1236,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -1270,7 +1263,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1500107</v>
       </c>
@@ -1281,7 +1274,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1500131</v>
       </c>
@@ -1292,7 +1285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1500206</v>
       </c>
@@ -1303,7 +1296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1500305</v>
       </c>
@@ -1314,7 +1307,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1500347</v>
       </c>
@@ -1325,7 +1318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1500404</v>
       </c>
@@ -1336,7 +1329,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1500503</v>
       </c>
@@ -1347,7 +1340,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1500602</v>
       </c>
@@ -1358,7 +1351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1500701</v>
       </c>
@@ -1369,7 +1362,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1500800</v>
       </c>
@@ -1380,7 +1373,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1500859</v>
       </c>
@@ -1391,7 +1384,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1500909</v>
       </c>
@@ -1402,7 +1395,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1500958</v>
       </c>
@@ -1413,7 +1406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1501006</v>
       </c>
@@ -1424,7 +1417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1501105</v>
       </c>
@@ -1435,7 +1428,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1501204</v>
       </c>
@@ -1446,7 +1439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1501253</v>
       </c>
@@ -1457,7 +1450,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1501303</v>
       </c>
@@ -1468,7 +1461,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1501402</v>
       </c>
@@ -1479,7 +1472,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1501451</v>
       </c>
@@ -1490,7 +1483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1501501</v>
       </c>
@@ -1501,7 +1494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1501576</v>
       </c>
@@ -1512,7 +1505,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1501600</v>
       </c>
@@ -1523,7 +1516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1501709</v>
       </c>
@@ -1534,7 +1527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1501725</v>
       </c>
@@ -1545,7 +1538,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1501758</v>
       </c>
@@ -1556,7 +1549,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1501782</v>
       </c>
@@ -1567,7 +1560,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1501808</v>
       </c>
@@ -1578,7 +1571,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1501907</v>
       </c>
@@ -1589,7 +1582,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1501956</v>
       </c>
@@ -1600,7 +1593,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1502004</v>
       </c>
@@ -1611,7 +1604,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1502103</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1502152</v>
       </c>
@@ -1633,7 +1626,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1502202</v>
       </c>
@@ -1644,7 +1637,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1502301</v>
       </c>
@@ -1655,7 +1648,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1502400</v>
       </c>
@@ -1666,7 +1659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1502509</v>
       </c>
@@ -1677,7 +1670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1502608</v>
       </c>
@@ -1688,7 +1681,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1502707</v>
       </c>
@@ -1699,7 +1692,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1502756</v>
       </c>
@@ -1710,7 +1703,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1502764</v>
       </c>
@@ -1721,7 +1714,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1502772</v>
       </c>
@@ -1732,7 +1725,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1502806</v>
       </c>
@@ -1743,7 +1736,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1502855</v>
       </c>
@@ -1754,7 +1747,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1502905</v>
       </c>
@@ -1765,7 +1758,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1502939</v>
       </c>
@@ -1776,7 +1769,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1502954</v>
       </c>
@@ -1787,7 +1780,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1503002</v>
       </c>
@@ -1798,7 +1791,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1503044</v>
       </c>
@@ -1809,7 +1802,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1503077</v>
       </c>
@@ -1820,7 +1813,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1503093</v>
       </c>
@@ -1831,7 +1824,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1503101</v>
       </c>
@@ -1842,7 +1835,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1503200</v>
       </c>
@@ -1853,7 +1846,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1503309</v>
       </c>
@@ -1864,7 +1857,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1503408</v>
       </c>
@@ -1875,7 +1868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1503457</v>
       </c>
@@ -1886,7 +1879,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1503507</v>
       </c>
@@ -1897,7 +1890,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1503606</v>
       </c>
@@ -1908,7 +1901,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1503705</v>
       </c>
@@ -1919,7 +1912,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1503754</v>
       </c>
@@ -1930,7 +1923,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1503804</v>
       </c>
@@ -1941,7 +1934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1503903</v>
       </c>
@@ -1952,7 +1945,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1504000</v>
       </c>
@@ -1963,7 +1956,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1504059</v>
       </c>
@@ -1974,7 +1967,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1504109</v>
       </c>
@@ -1985,7 +1978,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1504208</v>
       </c>
@@ -1996,7 +1989,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1504307</v>
       </c>
@@ -2007,7 +2000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1504406</v>
       </c>
@@ -2018,7 +2011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1504422</v>
       </c>
@@ -2029,7 +2022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1504455</v>
       </c>
@@ -2040,7 +2033,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1504505</v>
       </c>
@@ -2051,7 +2044,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1504604</v>
       </c>
@@ -2062,7 +2055,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1504703</v>
       </c>
@@ -2073,7 +2066,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1504752</v>
       </c>
@@ -2084,7 +2077,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1504802</v>
       </c>
@@ -2095,7 +2088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1504901</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1504950</v>
       </c>
@@ -2117,7 +2110,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1504976</v>
       </c>
@@ -2128,7 +2121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1505007</v>
       </c>
@@ -2139,7 +2132,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1505031</v>
       </c>
@@ -2150,7 +2143,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1505064</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1505106</v>
       </c>
@@ -2172,7 +2165,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1505205</v>
       </c>
@@ -2183,7 +2176,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1505304</v>
       </c>
@@ -2194,7 +2187,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1505403</v>
       </c>
@@ -2205,7 +2198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1505437</v>
       </c>
@@ -2216,7 +2209,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1505486</v>
       </c>
@@ -2227,7 +2220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1505494</v>
       </c>
@@ -2238,7 +2231,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1505502</v>
       </c>
@@ -2249,7 +2242,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1505536</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1505551</v>
       </c>
@@ -2271,7 +2264,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1505601</v>
       </c>
@@ -2282,7 +2275,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1505635</v>
       </c>
@@ -2293,7 +2286,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1505650</v>
       </c>
@@ -2304,7 +2297,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1505700</v>
       </c>
@@ -2315,7 +2308,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1505809</v>
       </c>
@@ -2326,7 +2319,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1505908</v>
       </c>
@@ -2337,7 +2330,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1506005</v>
       </c>
@@ -2348,7 +2341,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1506104</v>
       </c>
@@ -2359,7 +2352,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1506112</v>
       </c>
@@ -2370,7 +2363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1506138</v>
       </c>
@@ -2381,7 +2374,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1506161</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1506187</v>
       </c>
@@ -2403,7 +2396,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1506195</v>
       </c>
@@ -2414,7 +2407,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1506203</v>
       </c>
@@ -2425,7 +2418,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1506302</v>
       </c>
@@ -2436,7 +2429,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1506351</v>
       </c>
@@ -2447,7 +2440,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1506401</v>
       </c>
@@ -2458,7 +2451,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1506500</v>
       </c>
@@ -2469,7 +2462,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1506559</v>
       </c>
@@ -2480,7 +2473,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1506583</v>
       </c>
@@ -2491,7 +2484,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1506609</v>
       </c>
@@ -2502,7 +2495,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1506708</v>
       </c>
@@ -2513,7 +2506,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1506807</v>
       </c>
@@ -2524,7 +2517,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1506906</v>
       </c>
@@ -2535,7 +2528,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1507003</v>
       </c>
@@ -2546,7 +2539,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1507102</v>
       </c>
@@ -2557,7 +2550,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1507151</v>
       </c>
@@ -2568,7 +2561,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1507201</v>
       </c>
@@ -2579,7 +2572,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1507300</v>
       </c>
@@ -2590,7 +2583,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1507409</v>
       </c>
@@ -2601,7 +2594,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1507458</v>
       </c>
@@ -2612,7 +2605,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1507466</v>
       </c>
@@ -2623,7 +2616,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1507474</v>
       </c>
@@ -2634,7 +2627,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1507508</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1507607</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1507706</v>
       </c>
@@ -2667,7 +2660,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1507755</v>
       </c>
@@ -2678,7 +2671,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1507805</v>
       </c>
@@ -2689,7 +2682,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1507904</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1507953</v>
       </c>
@@ -2711,7 +2704,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1507961</v>
       </c>
@@ -2722,7 +2715,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1507979</v>
       </c>
@@ -2733,7 +2726,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1508001</v>
       </c>
@@ -2744,7 +2737,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1508035</v>
       </c>
@@ -2755,7 +2748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1508050</v>
       </c>
@@ -2766,7 +2759,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1508084</v>
       </c>
@@ -2777,7 +2770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1508100</v>
       </c>
@@ -2788,7 +2781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1508126</v>
       </c>
@@ -2799,7 +2792,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1508159</v>
       </c>
@@ -2810,7 +2803,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1508209</v>
       </c>
@@ -2821,7 +2814,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1508308</v>
       </c>
@@ -2832,7 +2825,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1508357</v>
       </c>
@@ -2843,7 +2836,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1508407</v>
       </c>
@@ -2853,10 +2846,6 @@
       <c r="C145" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
